--- a/algemeen/Kostenanalyse.xlsx
+++ b/algemeen/Kostenanalyse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timme\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timme\Documents\GitHub\BachelorProefGarbage\algemeen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D061C-572B-4B7A-AF2D-AB349BB63113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DEE446-249A-4E3C-BBBF-5F1CD67EA104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62E76352-1ED2-4E9D-ADA5-8F23696DA12C}"/>
   </bookViews>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -114,12 +114,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -434,209 +602,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4804C13-067A-4AA0-8AA1-2DC8BF379FD7}">
-  <dimension ref="B4:F20"/>
+  <dimension ref="C3:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="3" spans="3:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="6">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="F5" s="10">
         <f>D5*E5</f>
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" ref="F6:F16" si="0">D6*E6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>3.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>4.5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>0.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="16" spans="3:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="12">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>0.97</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="E16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
-        <f>SUM(F5:F20)</f>
-        <v>61.41</v>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
+        <f>SUM(F5:F16)</f>
+        <v>74.36</v>
       </c>
     </row>
   </sheetData>
